--- a/africa_beta_sadac_summary.xlsx
+++ b/africa_beta_sadac_summary.xlsx
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>New sequences in the last 30 days (data up to2021-09-30)</t>
+          <t>New sequences in the last 30 days (data up to2021-10-01)</t>
         </is>
       </c>
     </row>

--- a/africa_beta_sadac_summary.xlsx
+++ b/africa_beta_sadac_summary.xlsx
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>New sequences in the last 30 days (data up to2021-10-01)</t>
+          <t>New sequences in the last 30 days (data up to2021-10-17)</t>
         </is>
       </c>
     </row>
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -419,10 +419,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="F6">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="F7">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="F8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="F9">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>7060</v>
+        <v>7116</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -725,14 +725,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-08-05</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="F12">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="F13">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="F14">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="F15">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/africa_beta_sadac_summary.xlsx
+++ b/africa_beta_sadac_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,32 +365,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Variant</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Number of sequences</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Date of first sequence</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Date of last sequence</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>No of days since last sampling</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>New sequences in the last 30 days (data up to2021-10-17)</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>New sequences submitted in the last 30 days (data up to 2021-10-14)</t>
         </is>
       </c>
     </row>
@@ -402,430 +407,1364 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C2">
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>447</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-08-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2021-07-29</t>
         </is>
       </c>
-      <c r="F2">
-        <v>79</v>
-      </c>
       <c r="G2">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>378</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
-        </is>
-      </c>
-      <c r="F3">
-        <v>67</v>
+          <t>2021-05-23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-05-23</t>
+        </is>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="H3">
+        <v>199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>19</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2021-01-22</t>
-        </is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>378</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
-        </is>
-      </c>
-      <c r="F4">
-        <v>118</v>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-08-10</t>
+        </is>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>33</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2020-11-13</t>
-        </is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>99</v>
+          <t>2021-05-27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="H5">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2020-12-16</t>
-        </is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-01-18</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>271</v>
+          <t>2021-01-05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>201</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-02-09</t>
-        </is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
-        </is>
-      </c>
-      <c r="F7">
-        <v>173</v>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>337</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2020-11-25</t>
-        </is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
-        </is>
-      </c>
-      <c r="F8">
-        <v>117</v>
+          <t>2021-03-06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2020-12-06</t>
-        </is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>121</v>
+          <t>2021-01-22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>358</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2020-08-22</t>
-        </is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>131</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
-        </is>
-      </c>
-      <c r="F10">
-        <v>177</v>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>118</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2020-10-15</t>
-        </is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>49</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
-        </is>
-      </c>
-      <c r="F11">
-        <v>123</v>
+          <t>2021-01-12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-08-27</t>
+        </is>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>7116</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2020-08-17</t>
-        </is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>33</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
-        </is>
-      </c>
-      <c r="F12">
-        <v>21</v>
+          <t>2020-11-13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-07-09</t>
+        </is>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Union of the Comoros</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2021-01-05</t>
-        </is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-01-10</t>
-        </is>
-      </c>
-      <c r="F13">
-        <v>279</v>
+          <t>2021-05-25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-05-27</t>
+        </is>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="H13">
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>174</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2020-12-01</t>
-        </is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
-        </is>
-      </c>
-      <c r="F14">
-        <v>134</v>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>160</v>
+      </c>
+      <c r="H15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>255</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>203</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>107</v>
+      </c>
+      <c r="H17">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>269</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>147</v>
+      </c>
+      <c r="H19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>201</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2021-02-09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>171</v>
+      </c>
+      <c r="H20">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>337</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2020-11-25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>115</v>
+      </c>
+      <c r="H21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>119</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>119</v>
+      </c>
+      <c r="H23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>358</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>175</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>118</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>121</v>
+      </c>
+      <c r="H25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2021-02-05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-07-26</t>
+        </is>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+      <c r="H26">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Reunion</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2021-07-13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-09-09</t>
+        </is>
+      </c>
+      <c r="G27">
+        <v>35</v>
+      </c>
+      <c r="H27">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>52</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-07-07</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Seychelles</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2021-02-05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-06-01</t>
+        </is>
+      </c>
+      <c r="G29">
+        <v>135</v>
+      </c>
+      <c r="H29">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="G30">
+        <v>228</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>7116</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-09-25</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>South Sudan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>168</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2021-03-07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-03-29</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>199</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="G34">
+        <v>196</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-05-28</t>
+        </is>
+      </c>
+      <c r="G35">
+        <v>139</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2021-02-13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+      <c r="G36">
+        <v>122</v>
+      </c>
+      <c r="H36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Union of the Comoros</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2021-01-05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-01-10</t>
+        </is>
+      </c>
+      <c r="G37">
+        <v>277</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>174</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="G38">
+        <v>132</v>
+      </c>
+      <c r="H38">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="C15">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="D39">
         <v>357</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-05-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="F15">
-        <v>113</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="G39">
+        <v>111</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
